--- a/downloaded_files/CMPS302_Tutorial-35890.xlsx
+++ b/downloaded_files/CMPS302_Tutorial-35890.xlsx
@@ -39,7 +39,7 @@
     <x:t>أحمد محمد سيد صابر محمد</x:t>
   </x:si>
   <x:si>
-    <x:t>Ahmed Mohamed Sayed Saber</x:t>
+    <x:t xml:space="preserve">Ahmed Mohamed Sayed Saber Mohamed </x:t>
   </x:si>
   <x:si>
     <x:t>1230149</x:t>
